--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R835795ced5c1431d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="Rcef02a4c6e114670"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc14f92f0ac2d4279"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R911f388816264669"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R568d90aded2244a9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5db28e04eb924b24"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="Rcef02a4c6e114670"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6fc0bfd58a434891"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R911f388816264669"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe54c06659104332"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5db28e04eb924b24"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20dffbac04f24ade"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6fc0bfd58a434891"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R1a187c3924634d00"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe54c06659104332"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9b2129cb4ce049dc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20dffbac04f24ade"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20cfccb0a1504b95"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R1a187c3924634d00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="Raba4e068dd5047c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9b2129cb4ce049dc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc63c83ee55e1441a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20cfccb0a1504b95"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ba1706533a24434"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="Raba4e068dd5047c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R9c18cb22171647be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc63c83ee55e1441a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69d66215d14f4299"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ba1706533a24434"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re85c2924ead1458b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R9c18cb22171647be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R0275076484cb4e71"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69d66215d14f4299"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22ebf748bd0e4903"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re85c2924ead1458b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R131425b8fbb54871"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R0275076484cb4e71"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R4ee28195f1fc4aa6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22ebf748bd0e4903"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd031f3497ed4321"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R131425b8fbb54871"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R628423dd136c4a1f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R4ee28195f1fc4aa6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R4ea9a3af8a4247a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd031f3497ed4321"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31108dffda5c4636"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R628423dd136c4a1f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbe068f98f3b649b7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R4ea9a3af8a4247a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6f6f8278a6944f43"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31108dffda5c4636"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R578c4d9c50e242e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbe068f98f3b649b7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R355ebdf5c7fa4119"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6f6f8278a6944f43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6ce91a074e524768"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R578c4d9c50e242e1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c66571733304aa4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R355ebdf5c7fa4119"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb152df0747a149c4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R6ce91a074e524768"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R2594f09394cd4156"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c66571733304aa4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e47883543a643ec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb152df0747a149c4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R418713f11bce45de"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/106_AreaChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="R2594f09394cd4156"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Revenue" sheetId="1" r:id="Rc644cc4798ee45d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -196,7 +196,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e47883543a643ec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R65d5276285014625"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -286,6 +286,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R418713f11bce45de"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc15edf5a9bdc454a"/>
 </x:worksheet>
 </file>